--- a/Texts/Город Сокровищ/Гильдия Виглитаффа/Подуровень Гильдии 2.xlsx
+++ b/Texts/Город Сокровищ/Гильдия Виглитаффа/Подуровень Гильдии 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Раздел</t>
   </si>
@@ -64,6 +64,39 @@
   </si>
   <si>
     <t>[CN]\n[CN]← Ïáåäåîîúê Èàì</t>
+  </si>
+  <si>
+    <t>Утреннее построение</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/c00a0101.ssb</t>
+  </si>
+  <si>
+    <t>[CS:N]Everyone[CR]: AND...THREE![K] SMILES GO FOR MILES!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OK, Pokémon! ♪[K] Time to get\nto work! ♪</t>
+  </si>
+  <si>
+    <t>[CS:N]Everyone[CR]: HOORAY!</t>
+  </si>
+  <si>
+    <t>[CS:N]Все[CR]: И...ТРИ![K] УЛЫБАЙСЯ ДРУГ, ВСЕМ\nВОКРУГ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Отлично, Покемоны! ♪[K]\nЗа работу! ♪</t>
+  </si>
+  <si>
+    <t>[CS:N]Все[CR]: УРА!</t>
+  </si>
+  <si>
+    <t>[CS:N]Âòå[CR]: É...ÓÑÉ![K] ÔÌÚÁÀÊÒŸ ÄÑÔÃ, ÂÒÅÍ\nÂÏËÑÔÃ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïóìéœîï, Ðïëåíïîú! ♪[K]\nÈà ñàáïóô! ♪</t>
+  </si>
+  <si>
+    <t>[CS:N]Âòå[CR]: ÔÑÀ!</t>
   </si>
 </sst>
 </file>
@@ -228,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -267,6 +300,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -549,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,8 +596,8 @@
     <col min="1" max="1" width="15.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="7.5546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="28.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" style="4" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
@@ -634,6 +670,54 @@
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
     </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4">
+        <v>57</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4">
+        <v>78</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>141</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
